--- a/networks/citation_update.xlsx
+++ b/networks/citation_update.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7420" yWindow="460" windowWidth="15700" windowHeight="14420"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -21286,13 +21285,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1009" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D1362" sqref="D1362"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
